--- a/usernames.xlsx
+++ b/usernames.xlsx
@@ -34,7 +34,7 @@
     <t>Bestshore*05</t>
   </si>
   <si>
-    <t>2020-02-13</t>
+    <t>2020-02-14</t>
   </si>
   <si>
     <t>kahksahd</t>
@@ -414,7 +414,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>

--- a/usernames.xlsx
+++ b/usernames.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>usernames</t>
   </si>
@@ -28,19 +28,34 @@
     <t>last visit</t>
   </si>
   <si>
-    <t>100158267W</t>
-  </si>
-  <si>
-    <t>Bestshore*05</t>
+    <t>100160016W</t>
+  </si>
+  <si>
+    <t>Abcfinance*20</t>
   </si>
   <si>
     <t>2020-02-14</t>
   </si>
   <si>
-    <t>kahksahd</t>
-  </si>
-  <si>
-    <t>ldsljfljsd</t>
+    <t>100160423W</t>
+  </si>
+  <si>
+    <t>Idfjobs*0505</t>
+  </si>
+  <si>
+    <t>100160403W</t>
+  </si>
+  <si>
+    <t>Bestshore@05</t>
+  </si>
+  <si>
+    <t>100160618W</t>
+  </si>
+  <si>
+    <t>Talentdz*0505</t>
+  </si>
+  <si>
+    <t>100160619W</t>
   </si>
 </sst>
 </file>
@@ -372,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,13 +423,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -422,10 +437,26 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/usernames.xlsx
+++ b/usernames.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faizan\Downloads\Compressed\chromedriver_linux64\extapec\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FEE304-7351-4348-BFD0-901008CBDB12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>usernames</t>
   </si>
@@ -34,9 +40,6 @@
     <t>Abcfinance*20</t>
   </si>
   <si>
-    <t>2020-02-14</t>
-  </si>
-  <si>
     <t>100160423W</t>
   </si>
   <si>
@@ -56,13 +59,16 @@
   </si>
   <si>
     <t>100160619W</t>
+  </si>
+  <si>
+    <t>2020-02-21 01:07:19.635851</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +105,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -145,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,9 +191,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,6 +243,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,14 +436,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -418,45 +470,63 @@
         <v>200</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/usernames.xlsx
+++ b/usernames.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faizan\Downloads\Compressed\chromedriver_linux64\extapec\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FEE304-7351-4348-BFD0-901008CBDB12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>usernames</t>
   </si>
@@ -40,18 +34,27 @@
     <t>Abcfinance*20</t>
   </si>
   <si>
+    <t>2020-02-25 11:21:39.927887</t>
+  </si>
+  <si>
     <t>100160423W</t>
   </si>
   <si>
     <t>Idfjobs*0505</t>
   </si>
   <si>
+    <t>2020-02-25 12:01:08.967326</t>
+  </si>
+  <si>
     <t>100160403W</t>
   </si>
   <si>
     <t>Bestshore@05</t>
   </si>
   <si>
+    <t>2020-02-21 01:07:19.635851</t>
+  </si>
+  <si>
     <t>100160618W</t>
   </si>
   <si>
@@ -59,16 +62,13 @@
   </si>
   <si>
     <t>100160619W</t>
-  </si>
-  <si>
-    <t>2020-02-21 01:07:19.635851</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,14 +105,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -159,7 +151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,27 +183,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,24 +217,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,16 +392,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -470,63 +424,63 @@
         <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/usernames.xlsx
+++ b/usernames.xlsx
@@ -34,7 +34,7 @@
     <t>Abcfinance*20</t>
   </si>
   <si>
-    <t>2020-02-25 11:21:39.927887</t>
+    <t>2020-02-26 17:48:07.943342</t>
   </si>
   <si>
     <t>100160423W</t>
@@ -421,7 +421,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>

--- a/usernames.xlsx
+++ b/usernames.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>usernames</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Abcfinance*20</t>
   </si>
   <si>
-    <t>2020-02-26 17:48:07.943342</t>
+    <t>2020-03-01 17:28:53.787276</t>
   </si>
   <si>
     <t>100160423W</t>
@@ -43,7 +43,7 @@
     <t>Idfjobs*0505</t>
   </si>
   <si>
-    <t>2020-02-25 12:01:08.967326</t>
+    <t>2020-03-01 15:38:54.922127</t>
   </si>
   <si>
     <t>100160403W</t>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>100160619W</t>
+  </si>
+  <si>
+    <t>2020-03-01 17:29:02.416060</t>
   </si>
 </sst>
 </file>
@@ -421,10 +424,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -435,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -449,7 +452,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -463,7 +466,7 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -477,7 +480,7 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>

--- a/usernames.xlsx
+++ b/usernames.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>usernames</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Abcfinance*20</t>
   </si>
   <si>
-    <t>2020-03-01 17:28:53.787276</t>
+    <t>2020-03-07 00:13:44.591811</t>
   </si>
   <si>
     <t>100160423W</t>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>100160619W</t>
-  </si>
-  <si>
-    <t>2020-03-01 17:29:02.416060</t>
   </si>
 </sst>
 </file>
@@ -424,10 +421,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/usernames.xlsx
+++ b/usernames.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>usernames</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Abcfinance*20</t>
   </si>
   <si>
-    <t>2020-03-07 00:13:44.591811</t>
+    <t>2020-03-13 00:18:39.043948</t>
   </si>
   <si>
     <t>100160423W</t>
@@ -43,7 +43,7 @@
     <t>Idfjobs*0505</t>
   </si>
   <si>
-    <t>2020-03-01 15:38:54.922127</t>
+    <t>2020-03-13 01:59:22.479527</t>
   </si>
   <si>
     <t>100160403W</t>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>100160619W</t>
+  </si>
+  <si>
+    <t>2020-03-13 02:08:39.637561</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -435,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -449,10 +452,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/usernames.xlsx
+++ b/usernames.xlsx
@@ -34,7 +34,7 @@
     <t>Abcfinance*20</t>
   </si>
   <si>
-    <t>2020-03-13 00:18:39.043948</t>
+    <t>2020-03-18 18:00:27.438987</t>
   </si>
   <si>
     <t>100160423W</t>
@@ -52,19 +52,19 @@
     <t>Bestshore@05</t>
   </si>
   <si>
+    <t>2020-03-13 02:08:39.637561</t>
+  </si>
+  <si>
+    <t>100160618W</t>
+  </si>
+  <si>
+    <t>Talentdz*0505</t>
+  </si>
+  <si>
     <t>2020-02-21 01:07:19.635851</t>
   </si>
   <si>
-    <t>100160618W</t>
-  </si>
-  <si>
-    <t>Talentdz*0505</t>
-  </si>
-  <si>
     <t>100160619W</t>
-  </si>
-  <si>
-    <t>2020-03-13 02:08:39.637561</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -469,12 +469,12 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
